--- a/src/excel_template/posQC_trend/Global STR Trend format.xlsx
+++ b/src/excel_template/posQC_trend/Global STR Trend format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="5640" yWindow="450" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
@@ -314,6 +314,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -523,6 +524,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -547,6 +549,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -607,6 +610,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -816,6 +820,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
@@ -840,6 +845,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -899,6 +905,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1108,6 +1115,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1132,6 +1140,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1192,6 +1201,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1401,6 +1411,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1425,6 +1436,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1484,6 +1496,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1693,6 +1706,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1717,6 +1731,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1776,6 +1791,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1985,6 +2001,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2009,6 +2026,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2069,6 +2087,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2278,6 +2297,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2302,6 +2322,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3589,7 +3610,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BL996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -10788,7 +10809,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -10803,9 +10824,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
